--- a/サンプルプロジェクト/ソースコード/climan-project/src/test/java/com/nablarch/example/climan/rest/client/ClientActionTest.xlsx
+++ b/サンプルプロジェクト/ソースコード/climan-project/src/test/java/com/nablarch/example/climan/rest/client/ClientActionTest.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nablarch\system-guide\サンプルプロジェクト\ソースコード\climan-project\src\test\java\com\nablarch\example\climan\rest\client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC2037B-8060-4378-BBD8-D35C34C4DE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6A89A8-A727-4553-810D-B1BEB541EADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCC07A5D-5645-46B3-BC0B-1ABBDDE24C74}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
     <sheet name="testFindNoClients" sheetId="8" r:id="rId2"/>
-    <sheet name="testShowNoDataNotExistsClient" sheetId="9" r:id="rId3"/>
+    <sheet name="testShowWithEmptyClientTable" sheetId="9" r:id="rId3"/>
     <sheet name="testFindIndustryCodeNoClients" sheetId="6" r:id="rId4"/>
-    <sheet name="testFindIndustryCodeAndClientNa" sheetId="7" r:id="rId5"/>
-    <sheet name="testFindUnderUpperLimit" sheetId="4" r:id="rId6"/>
-    <sheet name="testFindCodeAndName1000" sheetId="5" r:id="rId7"/>
-    <sheet name="testFindOverUpperLimit" sheetId="3" r:id="rId8"/>
+    <sheet name="testFindUnderUpperLimit" sheetId="4" r:id="rId5"/>
+    <sheet name="testFindCodeAndNameUpperLimit" sheetId="5" r:id="rId6"/>
+    <sheet name="testFindOverUpperLimit" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9094" uniqueCount="2019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9074" uniqueCount="2019">
   <si>
     <t>CLIENT_ID</t>
   </si>
@@ -6874,117 +6873,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB64B434-228C-4FE6-9A5B-D2D87E15E358}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="16" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>2013</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>2014</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA35B3DB-149A-4F52-BF71-026E7882D85D}">
   <dimension ref="A1:J1004"/>
   <sheetViews>
@@ -18040,11 +17928,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEF3914-2AC6-40D5-8A27-95F03CC12444}">
   <dimension ref="A1:J1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -29105,7 +28995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51B27E0-8AD5-4212-B9A3-4B56C2C9A649}">
   <dimension ref="A1:J1005"/>
   <sheetViews>

--- a/サンプルプロジェクト/ソースコード/climan-project/src/test/java/com/nablarch/example/climan/rest/client/ClientActionTest.xlsx
+++ b/サンプルプロジェクト/ソースコード/climan-project/src/test/java/com/nablarch/example/climan/rest/client/ClientActionTest.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PJ\01.Nablarch\repo\nablarch-system-development-guide\サンプルプロジェクト\ソースコード\climan-project\src\test\java\com\nablarch\example\climan\rest\client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF9C250-F9C8-4D10-ACA9-D85601F3B674}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC94D4FA-7BC8-47B9-BD60-69840045D0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{FCC07A5D-5645-46B3-BC0B-1ABBDDE24C74}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCC07A5D-5645-46B3-BC0B-1ABBDDE24C74}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -6516,7 +6511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B653223-24B4-4336-9A7B-ADEB889ABA54}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6636,7 +6631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA35B3DB-149A-4F52-BF71-026E7882D85D}">
   <dimension ref="A1:J1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -17690,7 +17685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51B27E0-8AD5-4212-B9A3-4B56C2C9A649}">
   <dimension ref="A1:J1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/サンプルプロジェクト/ソースコード/climan-project/src/test/java/com/nablarch/example/climan/rest/client/ClientActionTest.xlsx
+++ b/サンプルプロジェクト/ソースコード/climan-project/src/test/java/com/nablarch/example/climan/rest/client/ClientActionTest.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nablarch\system-guide\サンプルプロジェクト\ソースコード\climan-project\src\test\java\com\nablarch\example\climan\rest\client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BA8AE7-2C2B-410F-B06B-7720A037CB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194BB1A0-AC07-41D7-A477-B20DF2D6DF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCC07A5D-5645-46B3-BC0B-1ABBDDE24C74}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCC07A5D-5645-46B3-BC0B-1ABBDDE24C74}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
